--- a/matriz de riesgos.xlsx
+++ b/matriz de riesgos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Documents\ProyectoTSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6AABA3F-8F71-4962-8A32-484A1B316F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE3E41-1935-4862-B74E-9C80886F3F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{15B710D9-5FBA-46E7-9709-A4AF1D92BBB0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{15B710D9-5FBA-46E7-9709-A4AF1D92BBB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,36 +140,49 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0F0F0F"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Century Gothic"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF595959"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -535,94 +548,97 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,9 +659,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -683,7 +699,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -789,7 +805,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -931,7 +947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -941,39 +957,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DB5F62-8BB5-4807-89B1-52B60F653000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="17"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="6"/>
+    <col min="7" max="7" width="16.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="11" t="s">
         <v>22</v>
       </c>
@@ -981,323 +997,311 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="14">
         <v>1</v>
       </c>
-      <c r="D3" s="19">
-        <v>3</v>
-      </c>
-      <c r="E3" s="20">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="14">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="18">
         <v>2</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="19">
-        <v>3</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="14">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="23">
+      <c r="H4" s="20">
         <v>1</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19">
-        <v>3</v>
-      </c>
-      <c r="D6" s="19">
-        <v>3</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="23">
+      <c r="H6" s="20">
         <v>2</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="19">
-        <v>3</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="D7" s="14">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="19">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14">
         <v>2</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="15">
         <v>6</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="23">
-        <v>3</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="20">
+        <v>3</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="14">
         <v>1</v>
       </c>
-      <c r="D9" s="19">
-        <v>3</v>
-      </c>
-      <c r="E9" s="20">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15">
+        <v>3</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="14">
         <v>1</v>
       </c>
-      <c r="D10" s="19">
-        <v>3</v>
-      </c>
-      <c r="E10" s="20">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
-        <v>3</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="14">
+        <v>3</v>
+      </c>
+      <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="E11" s="20">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="15">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="14">
         <v>2</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="14">
         <v>1</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>2</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="14">
         <v>2</v>
       </c>
-      <c r="D13" s="19">
-        <v>3</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="D13" s="14">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15">
         <v>6</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="28">
         <v>1</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="28">
         <v>1</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1311,6 +1315,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010024AF1370AB0F3E4FB9AC7F700DD770C0" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5a9924923b6131f11c11d6b5c91a7ac4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bab6d18b-1f4a-47c0-8b8c-4273187224d7" xmlns:ns4="8c00cafb-a4fe-45d3-b42c-4a2d50cd9226" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ecb294c32556079064b98c5cbe22fb15" ns3:_="" ns4:_="">
     <xsd:import namespace="bab6d18b-1f4a-47c0-8b8c-4273187224d7"/>
@@ -1493,15 +1506,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1511,6 +1515,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5B1F91-2463-4DB3-B938-0CCDB8FA325D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BC9E2B8-1605-49C2-9F6D-B16553DB09B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1525,14 +1537,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5B1F91-2463-4DB3-B938-0CCDB8FA325D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
